--- a/materials/BarGraphs.xlsx
+++ b/materials/BarGraphs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\texts\tech_math\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BAF1CA-A885-48A4-9462-8F2E624F481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BFF82D-B41F-427E-B69A-6F1D38A6BBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="-16440" windowWidth="29280" windowHeight="15960" activeTab="1" xr2:uid="{3024DB85-59D0-4D1B-917C-B1E11A61D4A6}"/>
+    <workbookView xWindow="2328" yWindow="-96" windowWidth="17280" windowHeight="13398" activeTab="2" xr2:uid="{3024DB85-59D0-4D1B-917C-B1E11A61D4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Vasya" sheetId="1" r:id="rId1"/>
     <sheet name="Tien" sheetId="2" r:id="rId2"/>
-    <sheet name="Exercise" sheetId="3" r:id="rId3"/>
+    <sheet name="CompareRates" sheetId="4" r:id="rId3"/>
+    <sheet name="Exercise" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>Year</t>
   </si>
@@ -53,6 +54,18 @@
   </si>
   <si>
     <t>Inflation adjusted salary</t>
+  </si>
+  <si>
+    <t>Vasya Raise</t>
+  </si>
+  <si>
+    <t>Tien Raise</t>
+  </si>
+  <si>
+    <t>Vasya Percent</t>
+  </si>
+  <si>
+    <t>Tien Percent</t>
   </si>
 </sst>
 </file>
@@ -483,7 +496,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Vasya!$C$1</c15:sqref>
@@ -588,7 +601,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-94FD-4103-96DB-F9BB40A97AB3}"/>
                   </c:ext>
@@ -1239,6 +1252,1110 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CompareRates!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vasya Raise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>CompareRates!$A$2:$A$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>CompareRates!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>CompareRates!$B$2:$B$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>CompareRates!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFF4-47F4-AF76-72F6EF8C1E10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CompareRates!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tien Raise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>CompareRates!$A$2:$A$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>CompareRates!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>CompareRates!$C$2:$C$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>CompareRates!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2621.4665000000023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2752.5398249999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2890.1668162500064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3034.6751570625056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3186.4089149156353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3345.7293606614112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3513.0158286944788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFF4-47F4-AF76-72F6EF8C1E10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="695384575"/>
+        <c:axId val="695385055"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CompareRates!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Year</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>CompareRates!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>CompareRates!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>CompareRates!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>CompareRates!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-DFF4-47F4-AF76-72F6EF8C1E10}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="695384575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695385055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="695385055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695384575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CompareRates!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vasya Percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>CompareRates!$A$2:$A$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>CompareRates!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>CompareRates!$D$2:$D$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>CompareRates!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.019602474721009E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4242103201571902E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9111146342437701E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4643556078220241E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0718496542020897E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7242799800291316E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.414347566245354E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-64A2-47B0-9A2A-BEB7739D034C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CompareRates!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tien Percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>CompareRates!$A$2:$A$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>CompareRates!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>CompareRates!$E$2:$E$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>CompareRates!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000107E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000086E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000148E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000051E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-64A2-47B0-9A2A-BEB7739D034C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="695377375"/>
+        <c:axId val="695372095"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CompareRates!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Year</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>CompareRates!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>CompareRates!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>CompareRates!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>CompareRates!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-64A2-47B0-9A2A-BEB7739D034C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="695377375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695372095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="695372095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695377375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1931,6 +3048,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2938,6 +4135,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3509,6 +5712,83 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329735B3-253D-B8C7-E4DE-2AA93B72204F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>77152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>113347</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796246D9-5BD0-1E09-67E5-E3334D3E5DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3869,7 +6149,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4052,8 +6332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EFD714-82A4-4F7F-8BE6-E9B6BD72ADA5}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4272,11 +6552,172 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA21CA3-A989-47FC-BD04-5EFA9CA32556}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2621.4665000000023</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8.019602474721009E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2752.5398249999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.4242103201571902E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2890.1668162500064</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.9111146342437701E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.0000000000000107E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3034.6751570625056</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.4643556078220241E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.0000000000000086E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3186.4089149156353</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6.0718496542020897E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.0000000000000148E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3345.7293606614112</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.7242799800291316E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.0000000000000051E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3513.0158286944788</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.414347566245354E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5.000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39449274-2CFC-4C7C-97FC-BABB849D297E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="2" sqref="A1:A1048576 B1:B1048576 F1:F1048576"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/materials/BarGraphs.xlsx
+++ b/materials/BarGraphs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\texts\tech_math\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BFF82D-B41F-427E-B69A-6F1D38A6BBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8454316-A1CD-4F7D-859C-2D86BE97D41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="-96" windowWidth="17280" windowHeight="13398" activeTab="2" xr2:uid="{3024DB85-59D0-4D1B-917C-B1E11A61D4A6}"/>
+    <workbookView xWindow="702" yWindow="510" windowWidth="21618" windowHeight="12888" activeTab="4" xr2:uid="{3024DB85-59D0-4D1B-917C-B1E11A61D4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Vasya" sheetId="1" r:id="rId1"/>
     <sheet name="Tien" sheetId="2" r:id="rId2"/>
     <sheet name="CompareRates" sheetId="4" r:id="rId3"/>
     <sheet name="Exercise" sheetId="3" r:id="rId4"/>
+    <sheet name="IdentifyRate" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -67,6 +68,57 @@
   <si>
     <t>Tien Percent</t>
   </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Quadratic</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Cubic</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
 </sst>
 </file>
 
@@ -75,10 +127,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2928,6 +2986,1254 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IdentifyRate!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IdentifyRate!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IdentifyRate!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8398-4EB5-9266-AA3096D5F95A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="682399776"/>
+        <c:axId val="682409376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="682399776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682409376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="682409376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682399776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IdentifyRate!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quadratic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IdentifyRate!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IdentifyRate!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A94-48E9-988E-939E55A813A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="682406496"/>
+        <c:axId val="682409856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="682406496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682409856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="682409856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682406496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IdentifyRate!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cubic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IdentifyRate!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IdentifyRate!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B236-4F5C-9A36-E01012D69104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="682404576"/>
+        <c:axId val="682412256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="682404576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682412256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="682412256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682404576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IdentifyRate!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exponential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IdentifyRate!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IdentifyRate!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DC9-4CD3-850E-379F789D5777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="711198207"/>
+        <c:axId val="711198687"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="711198207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711198687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="711198687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711198207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3128,6 +4434,160 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5602,6 +7062,2018 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5829,6 +9301,155 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A2F468-B366-681C-2FD3-4429D96D5244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A0E6E2-C8F2-CDB2-C91D-E389173E6ED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D29F654-271B-A963-D79C-1E0CF386A949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73402DC0-07D1-8F8A-DEB8-E1E11AC70F57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6555,7 +10176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA21CA3-A989-47FC-BD04-5EFA9CA32556}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -6935,4 +10556,326 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCCA3FB-8C39-4C11-8C04-87960FC0546C}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <f>2+3*A2</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>2+A2^2</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>2+A2^3</f>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>1+2^A2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f>2+3*A3</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">2+A3^2</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="1">2+A3^3</f>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="2">1+2^A3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <f>2+3*A4</f>
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <f>2+3*A5</f>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <f>2+3*A6</f>
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <f>2+3*A7</f>
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <f>2+3*A8</f>
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <f>2+3*A9</f>
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <f>2+3*A10</f>
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>514</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <f>2+3*A11</f>
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>731</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <f>2+3*A12</f>
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1002</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <f>2+3*A13</f>
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1333</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>2049</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/materials/BarGraphs.xlsx
+++ b/materials/BarGraphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\texts\tech_math\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8454316-A1CD-4F7D-859C-2D86BE97D41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8CE5BB-08F6-4568-A4B6-CFA4B4DE2E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="702" yWindow="510" windowWidth="21618" windowHeight="12888" activeTab="4" xr2:uid="{3024DB85-59D0-4D1B-917C-B1E11A61D4A6}"/>
+    <workbookView xWindow="3294" yWindow="1512" windowWidth="17280" windowHeight="11766" activeTab="3" xr2:uid="{3024DB85-59D0-4D1B-917C-B1E11A61D4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Vasya" sheetId="1" r:id="rId1"/>
@@ -874,47 +874,9 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="5"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -940,7 +902,6 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1023,11 +984,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:shape val="box"/>
+        <c:gapWidth val="199"/>
         <c:axId val="78753504"/>
         <c:axId val="78746304"/>
-        <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1059,7 +1018,6 @@
                     <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
-                  <a:sp3d/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
@@ -1149,7 +1107,7 @@
             </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="78753504"/>
         <c:scaling>
@@ -1179,7 +1137,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1222,6 +1180,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2428,48 +2400,9 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -2495,7 +2428,6 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2592,7 +2524,6 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2675,11 +2606,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
+        <c:gapWidth val="199"/>
         <c:axId val="386565232"/>
         <c:axId val="386588272"/>
-        <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2711,7 +2640,6 @@
                     <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
-                  <a:sp3d/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
@@ -2801,7 +2729,7 @@
             </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="386565232"/>
         <c:scaling>
@@ -2815,8 +2743,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2825,7 +2759,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2868,6 +2802,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2912,7 +2860,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5092,6 +5040,506 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5594,7 +6042,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6097,8 +6545,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6109,7 +6557,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6132,14 +6580,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6155,7 +6603,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6175,22 +6623,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -6199,35 +6642,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6236,33 +6689,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6284,15 +6733,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6303,498 +6750,6 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6803,14 +6758,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6819,126 +6773,119 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6959,7 +6906,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -6967,7 +6914,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6980,6 +6927,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6987,10 +6945,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -7005,13 +6963,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7020,14 +6978,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7048,20 +7006,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7082,14 +7039,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9769,8 +9720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9D0BE1-9AFF-48BC-A7F9-0C9BE4BEBECC}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10337,7 +10288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39449274-2CFC-4C7C-97FC-BABB849D297E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -10562,7 +10513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCCA3FB-8C39-4C11-8C04-87960FC0546C}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -10593,7 +10544,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <f>2+3*A2</f>
+        <f t="shared" ref="C2:C13" si="0">2+3*A2</f>
         <v>2</v>
       </c>
       <c r="D2">
@@ -10617,19 +10568,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <f>2+3*A3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">2+A3^2</f>
+        <f t="shared" ref="D3:D13" si="1">2+A3^2</f>
         <v>3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="1">2+A3^3</f>
+        <f t="shared" ref="E3:E13" si="2">2+A3^3</f>
         <v>3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F13" si="2">1+2^A3</f>
+        <f t="shared" ref="F3:F13" si="3">1+2^A3</f>
         <v>3</v>
       </c>
     </row>
@@ -10641,19 +10592,19 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <f>2+3*A4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10665,19 +10616,19 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <f>2+3*A5</f>
-        <v>11</v>
-      </c>
-      <c r="D5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -10689,19 +10640,19 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f>2+3*A6</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
@@ -10713,19 +10664,19 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <f>2+3*A7</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10737,19 +10688,19 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <f>2+3*A8</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>218</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
     </row>
@@ -10761,19 +10712,19 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <f>2+3*A9</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>345</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
     </row>
@@ -10785,19 +10736,19 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <f>2+3*A10</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>514</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
     </row>
@@ -10809,19 +10760,19 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <f>2+3*A11</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>731</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>513</v>
       </c>
     </row>
@@ -10833,19 +10784,19 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <f>2+3*A12</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1002</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1025</v>
       </c>
     </row>
@@ -10857,19 +10808,19 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <f>2+3*A13</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1333</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2049</v>
       </c>
     </row>
